--- a/catalog/catalog_db.xlsx
+++ b/catalog/catalog_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rblasser\OneDrive\Desktop\PORTFOLIO_PRIVAL\mvp\mvp_app\catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F592D3B-8A34-4A48-9775-7A13CF24B99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78245EDE-A554-473E-97BE-BA03B4887DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="risk_matrix" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>asset_class</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Definicion</t>
+  </si>
+  <si>
+    <t>Private Funds</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -806,11 +809,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,6 +979,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,11 +1622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,16 +1663,16 @@
         <v>0.2</v>
       </c>
       <c r="C2" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="19">
         <v>0.5</v>
       </c>
-      <c r="D2" s="19">
-        <v>0.6</v>
-      </c>
       <c r="E2" s="20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="21">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,19 +1680,19 @@
         <v>19</v>
       </c>
       <c r="B3" s="22">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="23">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="24">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="25">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="26">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,13 +1706,13 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="35">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="36">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="37">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1698,43 +1735,63 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B7" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C7" s="49">
         <v>2</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D7" s="49">
         <v>3</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E7" s="49">
         <v>4</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F7" s="50">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+    <row r="8" spans="1:6" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B8" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>85</v>
       </c>
     </row>
